--- a/archivos/Índices & Ratios.xlsx
+++ b/archivos/Índices & Ratios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Proyecto Crasso 2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Documentos\Universidad\8vo Cuatrimestre\Metodología de la Investigación\TFG\GAP---Gestion-Accesible-para-PyMEs\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="19515" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
-  <si>
-    <t>índices</t>
-  </si>
-  <si>
-    <t>Son herramientas de gestión que nos permite sacar conclusiones respecto de la actuación de un ente y su situación económica, o financiera</t>
-  </si>
   <si>
     <t>Ejercicios</t>
   </si>
@@ -215,6 +209,12 @@
   <si>
     <t>Palanca o Laverage</t>
   </si>
+  <si>
+    <t>Son herramientas de gestión que nos permite sacar conclusiones respecto de la actuación de un ente y su situación económica, o financiera. En este caso los números son ejemplo de un balance real, deberá modificarlos con los de su organización.</t>
+  </si>
+  <si>
+    <t>Indices y Ratios (Financieros y Económicos)</t>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,8 +283,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,8 +337,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -460,6 +473,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -469,56 +519,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
@@ -532,17 +543,79 @@
     <xf numFmtId="44" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20327,6 +20400,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>0</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -20375,6 +20449,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>9</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -20423,6 +20498,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>98</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -20471,6 +20547,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>142</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -20519,6 +20596,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>0</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -20567,6 +20645,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>7</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -20615,6 +20694,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>74</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -20663,6 +20743,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>20</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -20711,6 +20792,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>#¡DIV/0!</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -20759,6 +20841,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>7</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -20856,6 +20939,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>364</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -21070,6 +21154,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>52</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -21167,6 +21252,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>8</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -21215,6 +21301,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>109</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -21263,6 +21350,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>52</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -21311,6 +21399,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>186</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -21359,6 +21448,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>-152</a:t>
           </a:fld>
           <a:endParaRPr lang="es-AR" sz="85700" b="1" i="0"/>
@@ -21453,13 +21543,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="11">
-          <cell r="F11">
-            <v>58.888888888888893</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -21728,10 +21812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M80"/>
+  <dimension ref="A2:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21748,1273 +21832,2155 @@
     <col min="10" max="10" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="49">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="49">
+        <v>2022</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
-        <v>2023</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2022</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
+        <v>667688907.60000002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>401705030.67000002</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8">
-        <v>667688907.60000002</v>
-      </c>
-      <c r="D6" s="8">
-        <v>401705030.67000002</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11">
+      <c r="H6" s="29"/>
+      <c r="I6" s="6">
         <f>VLOOKUP(G6,$A$6:$C$32,3,FALSE)</f>
         <v>348545129.25000006</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="J6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="32">
         <f>I6/I7</f>
         <v>0.47844008153023987</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="L6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="36">
         <f>K6</f>
         <v>0.47844008153023987</v>
       </c>
+      <c r="N6" s="46"/>
+      <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
         <v>728503197.59000003</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="9">
         <v>443708031.12</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11">
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="6">
         <f>VLOOKUP(G7,$A$6:$C$32,3,FALSE)</f>
         <v>728503197.59000003</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
+        <v>358817235.83999997</v>
+      </c>
+      <c r="D8" s="9">
+        <v>232267861.53</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
+        <v>379958068.33999997</v>
+      </c>
+      <c r="D9" s="9">
+        <v>234033845.56999999</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46">
+        <v>2</v>
+      </c>
+      <c r="G9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18">
-        <v>358817235.83999997</v>
-      </c>
-      <c r="D8" s="18">
-        <v>232267861.53</v>
-      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18">
-        <v>379958068.33999997</v>
-      </c>
-      <c r="D9" s="18">
-        <v>234033845.56999999</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12">
         <f>C7-C9</f>
         <v>348545129.25000006</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="12">
         <f>D7-D9</f>
         <v>209674185.55000001</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="6">
         <f>VLOOKUP(G10,$A$6:$C$32,3,FALSE)</f>
         <v>379958068.33999997</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="J10" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="32">
         <f>I10/I11</f>
         <v>0.52155991846976013</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="15">
+      <c r="L10" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="36">
         <f>K10</f>
         <v>0.52155991846976013</v>
       </c>
+      <c r="N10" s="46"/>
+      <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="G11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11">
+    <row r="11" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="6">
         <f>VLOOKUP(G11,$A$6:$C$32,3,FALSE)</f>
         <v>728503197.59000003</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46">
+        <v>3</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="8"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9">
+        <v>60814289.990000002</v>
+      </c>
+      <c r="D14" s="9">
+        <v>42003000.460000001</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18">
-        <v>60814289.990000002</v>
-      </c>
-      <c r="D14" s="18">
-        <v>42003000.460000001</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11">
+      <c r="H14" s="29"/>
+      <c r="I14" s="6">
         <f>VLOOKUP("Bienes de uso",$A$6:$C$32,3,FALSE)+VLOOKUP("Inversiones permanentes",$A$6:$C$32,3,FALSE)+VLOOKUP("Activos Intangibles",$A$6:$C$32,3,FALSE)</f>
         <v>60814289.990000002</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="J14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="32">
         <f>I14/I15</f>
         <v>0.17448038972990465</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="15">
+      <c r="L14" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="36">
         <f>K14</f>
         <v>0.17448038972990465</v>
       </c>
+      <c r="N14" s="46"/>
+      <c r="O14" s="8"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9">
         <v>1211821272.4000001</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="9">
         <v>968382811.09000003</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11">
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="6">
         <f>VLOOKUP(G15,$A$6:$C$32,3,FALSE)</f>
         <v>348545129.25000006</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17">
+        <v>1258900</v>
+      </c>
+      <c r="D16" s="17">
+        <v>62860740.57</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46">
+        <v>4</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30">
-        <v>1258900</v>
-      </c>
-      <c r="D16" s="30">
-        <v>62860740.57</v>
-      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="8"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17">
         <v>2085870848.77</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="17">
         <v>1466206461.0799999</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11">
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="6">
         <f>VLOOKUP("Bienes de uso",$A$6:$C$32,3,FALSE)+VLOOKUP("Inversiones permanentes",$A$6:$C$32,3,FALSE)+VLOOKUP("Activos Intangibles",$A$6:$C$32,3,FALSE)</f>
         <v>60814289.990000002</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="13">
+      <c r="J18" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="32">
         <f>I18/I19</f>
         <v>8.3478411887803611E-2</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="15">
+      <c r="L18" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="36">
         <f>K18</f>
         <v>8.3478411887803611E-2</v>
       </c>
+      <c r="N18" s="46"/>
+      <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20">
         <v>183017642.33000001</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="20">
         <v>106426982.38</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="6">
         <f>VLOOKUP(G19,$A$6:$C$32,3,FALSE)</f>
         <v>728503197.59000003</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20">
         <v>1713947466.0799999</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="20">
         <v>1169380067.73</v>
       </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33">
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20">
         <f>25921377.82+1211821272.4</f>
         <v>1237742650.22</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="20">
         <f>40353577.47+968382811.09</f>
         <v>1008736388.5600001</v>
       </c>
-      <c r="F21">
+      <c r="E21" s="46"/>
+      <c r="F21" s="46">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="5"/>
+      <c r="G21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="G22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="6">
         <f>VLOOKUP(G22,$A$6:$C$32,3,FALSE)</f>
         <v>379958068.33999997</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="13">
+      <c r="J22" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="32">
         <f>I22/I23</f>
         <v>1.0901258874499102</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="15">
+      <c r="L22" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="36">
         <f>K22</f>
         <v>1.0901258874499102</v>
       </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="G23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="6">
         <f>VLOOKUP(G23,$A$6:$C$32,3,FALSE)</f>
         <v>348545129.25000006</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17">
+        <v>148269735.31</v>
+      </c>
+      <c r="D24" s="17">
+        <v>74255735.379999995</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46">
+        <v>6</v>
+      </c>
+      <c r="G25" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30">
-        <v>148269735.31</v>
-      </c>
-      <c r="D24" s="30">
-        <v>74255735.379999995</v>
-      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="8"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="G26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="6">
         <f>VLOOKUP(G26,$A$6:$C$32,3,FALSE)</f>
         <v>379958068.33999997</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="13">
+      <c r="J26" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="32">
         <f>I26/I27</f>
         <v>0.52155991846976013</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="15">
+      <c r="L26" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="36">
         <f>K26</f>
         <v>0.52155991846976013</v>
       </c>
+      <c r="N26" s="46"/>
+      <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20">
         <v>6264443.25</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="20">
         <v>41585334.039999999</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11">
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="6">
         <f>VLOOKUP(G27,$A$6:$C$32,3,FALSE)</f>
         <v>728503197.59000003</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="22"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20">
+        <v>56113945.689999998</v>
+      </c>
+      <c r="D28" s="20">
+        <v>58957144.670000002</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20">
+        <v>172261.84</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46">
+        <v>7</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33">
-        <v>56113945.689999998</v>
-      </c>
-      <c r="D28" s="33">
-        <v>58957144.670000002</v>
-      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="8"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33">
-        <v>172261.84</v>
-      </c>
-      <c r="F29">
-        <v>7</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30">
+      <c r="B30" s="16"/>
+      <c r="C30" s="17">
         <v>848128198.54999995</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="17">
         <v>457470072.50999999</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11">
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="6">
         <f>VLOOKUP(G30,$A$6:$C$32,3,FALSE)</f>
         <v>667688907.60000002</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="13">
+      <c r="J30" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="32">
         <f>I30/I31</f>
         <v>1.8608050029618111</v>
       </c>
-      <c r="L30" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="15">
+      <c r="L30" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="36">
         <f>K30</f>
         <v>1.8608050029618111</v>
       </c>
+      <c r="N30" s="46"/>
+      <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="34">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="21">
         <f>K63</f>
         <v>0.74032926558326839</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="G31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11">
+      <c r="D31" s="9"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="6">
         <f>VLOOKUP(G31,$A$6:$C$32,3,FALSE)</f>
         <v>358817235.83999997</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="22"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="22">
         <f>K67</f>
         <v>0.20352654017236843</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F33">
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46">
         <v>8</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="5"/>
+      <c r="G33" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="11">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="6">
         <f>VLOOKUP("Activo Corriente",$A$6:$C$32,3,FALSE)-VLOOKUP("Bienes de Cambio",$A$6:$C$32,3,FALSE)</f>
         <v>-544132364.80000007</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K34" s="13">
+      <c r="J34" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="32">
         <f>I34/I35</f>
         <v>-1.5164610571902233</v>
       </c>
-      <c r="L34" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="15">
+      <c r="L34" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" s="36">
         <f>K34</f>
         <v>-1.5164610571902233</v>
       </c>
+      <c r="N34" s="46"/>
+      <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="11">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="6">
         <f>VLOOKUP(G35,$A$6:$C$32,3,FALSE)</f>
         <v>358817235.83999997</v>
       </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="22"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="8"/>
     </row>
-    <row r="37" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F37">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46">
         <v>9</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="5"/>
+      <c r="G37" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="8"/>
     </row>
-    <row r="38" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="10"/>
-      <c r="I38" s="11">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="6">
         <f>VLOOKUP(G38,$A$6:$C$32,3,FALSE)</f>
         <v>1258900</v>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="13">
+      <c r="J38" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="32">
         <f>I38/I39</f>
         <v>6.035368875989376E-4</v>
       </c>
-      <c r="L38" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="36">
+      <c r="L38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="38">
         <f>K38*365</f>
         <v>0.22029096397361222</v>
       </c>
+      <c r="N38" s="46"/>
+      <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G39" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="10"/>
-      <c r="I39" s="11">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="6">
         <f>VLOOKUP(G39,$A$6:$C$32,3,FALSE)</f>
         <v>2085870848.77</v>
       </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="37"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="8"/>
     </row>
-    <row r="41" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F41">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46">
         <v>10</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5"/>
+      <c r="G41" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="10"/>
-      <c r="I42" s="11">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="6">
         <f>VLOOKUP(G42,$A$6:$C$32,3,FALSE)</f>
         <v>183017642.33000001</v>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" s="13">
+      <c r="J42" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="32">
         <f>I42/I43</f>
         <v>8.7741598401416931E-2</v>
       </c>
-      <c r="L42" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M42" s="36">
+      <c r="L42" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="38">
         <f>K42*365</f>
         <v>32.025683416517182</v>
       </c>
+      <c r="N42" s="46"/>
+      <c r="O42" s="8"/>
     </row>
-    <row r="43" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G43" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="29"/>
+      <c r="I43" s="6">
         <f>VLOOKUP(G43,$A$6:$C$32,3,FALSE)</f>
         <v>2085870848.77</v>
       </c>
-      <c r="J43" s="19"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="37"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="8"/>
     </row>
-    <row r="45" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46">
         <v>11</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="5"/>
+      <c r="G45" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G46" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="11">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="6">
         <f>VLOOKUP(G46,$A$6:$C$32,3,FALSE)</f>
         <v>1211821272.4000001</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="13">
+      <c r="J46" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="32">
         <f>I46/I47</f>
         <v>0.97905753848314703</v>
       </c>
-      <c r="L46" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M46" s="36">
+      <c r="L46" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" s="38">
         <f>K46*365</f>
         <v>357.35600154634869</v>
       </c>
+      <c r="N46" s="46"/>
+      <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="11">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="6">
         <f>VLOOKUP(G47,$A$6:$C$32,3,FALSE)</f>
         <v>1237742650.22</v>
       </c>
-      <c r="J47" s="19"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="37"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="8"/>
     </row>
-    <row r="49" spans="6:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G49" s="38" t="s">
-        <v>49</v>
-      </c>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="8"/>
     </row>
-    <row r="50" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F50">
+    <row r="49" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="8"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46">
         <v>12</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="5"/>
+      <c r="G50" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="8"/>
     </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="11">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="6">
         <f>VLOOKUP(G51,$A$6:$C$32,3,FALSE)</f>
         <v>2085870848.77</v>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" s="13">
+      <c r="J51" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="32">
         <f>I51/I52</f>
         <v>1.4226310578617682</v>
       </c>
-      <c r="L51" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M51" s="15">
+      <c r="L51" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M51" s="36">
         <f>K51</f>
         <v>1.4226310578617682</v>
       </c>
+      <c r="N51" s="46"/>
+      <c r="O51" s="8"/>
     </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G52" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="11">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="6">
         <f>VLOOKUP(G52,$A$6:$D$32,4,FALSE)</f>
         <v>1466206461.0799999</v>
       </c>
-      <c r="J52" s="19"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="22"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="8"/>
     </row>
-    <row r="54" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F54">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="8"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46">
         <v>13</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="5"/>
+      <c r="G54" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G55" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="11">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="29"/>
+      <c r="I55" s="6">
         <f>VLOOKUP(G55,$A$6:$C$32,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K55" s="13">
+      <c r="J55" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="32">
         <f>I55/I56</f>
         <v>0</v>
       </c>
-      <c r="L55" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M55" s="15">
+      <c r="L55" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M55" s="36">
         <f>K55</f>
         <v>0</v>
       </c>
+      <c r="N55" s="46"/>
+      <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G56" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="11">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="6">
         <f>VLOOKUP(G56,$A$6:$D$32,3,FALSE)</f>
         <v>2085870848.77</v>
       </c>
-      <c r="J56" s="19"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="22"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="8"/>
     </row>
-    <row r="58" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F58">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="8"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46">
         <v>14</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="5"/>
+      <c r="G58" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="8"/>
     </row>
-    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G59" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="11">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" s="29"/>
+      <c r="I59" s="6">
         <f>VLOOKUP(G59,$A$6:$C$32,3,FALSE)</f>
         <v>148269735.31</v>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K59" s="13">
+      <c r="J59" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="32">
         <f>I59/I60</f>
         <v>7.1082893457872512E-2</v>
       </c>
-      <c r="L59" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M59" s="15">
+      <c r="L59" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="36">
         <f>K59</f>
         <v>7.1082893457872512E-2</v>
       </c>
+      <c r="N59" s="46"/>
+      <c r="O59" s="8"/>
     </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G60" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="11">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="29"/>
+      <c r="I60" s="6">
         <f>VLOOKUP(G60,$A$6:$D$32,3,FALSE)</f>
         <v>2085870848.77</v>
       </c>
-      <c r="J60" s="19"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="22"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="8"/>
     </row>
-    <row r="62" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F62">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="8"/>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46">
         <v>15</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="5"/>
+      <c r="G62" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="8"/>
     </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G63" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="11">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H63" s="29"/>
+      <c r="I63" s="6">
         <f>VLOOKUP(G63,$A$6:$C$32,3,FALSE)</f>
         <v>148269735.31</v>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K63" s="13">
+      <c r="J63" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" s="32">
         <f>I63/I64</f>
         <v>0.74032926558326839</v>
       </c>
-      <c r="L63" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M63" s="15">
+      <c r="L63" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M63" s="36">
         <f>K63</f>
         <v>0.74032926558326839</v>
       </c>
+      <c r="N63" s="46"/>
+      <c r="O63" s="8"/>
     </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G64" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="11">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="29"/>
+      <c r="I64" s="6">
         <f>VLOOKUP("Patrimonio Neto",$A$6:$D$32,3,FALSE)-VLOOKUP("Utilidad Neta Final",$A$6:$D$32,3,FALSE)</f>
         <v>200275393.94000006</v>
       </c>
-      <c r="J64" s="19"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="22"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="8"/>
     </row>
-    <row r="66" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F66">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="8"/>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46">
         <v>16</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="5"/>
+      <c r="G66" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="8"/>
     </row>
-    <row r="67" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G67" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H67" s="10"/>
-      <c r="I67" s="11">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H67" s="29"/>
+      <c r="I67" s="6">
         <f>VLOOKUP(G67,$A$6:$C$32,3,FALSE)</f>
         <v>148269735.31</v>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K67" s="13">
+      <c r="J67" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" s="32">
         <f>I67/I68</f>
         <v>0.20352654017236843</v>
       </c>
-      <c r="L67" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M67" s="15">
+      <c r="L67" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M67" s="36">
         <f>K67</f>
         <v>0.20352654017236843</v>
       </c>
+      <c r="N67" s="46"/>
+      <c r="O67" s="8"/>
     </row>
-    <row r="68" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G68" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="11">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="29"/>
+      <c r="I68" s="6">
         <f>VLOOKUP(G68,$A$6:$D$32,3,FALSE)</f>
         <v>728503197.59000003</v>
       </c>
-      <c r="J68" s="19"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="22"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="8"/>
     </row>
-    <row r="70" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F70">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="8"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46">
         <v>17</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="5"/>
+      <c r="G70" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G71" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="11">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="H71" s="29"/>
+      <c r="I71" s="6">
         <f>VLOOKUP(G71,$A$6:$C$32,3,FALSE)</f>
         <v>148269735.31</v>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K71" s="13" t="e">
+      <c r="J71" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" s="32" t="e">
         <f>I71/I72</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L71" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M71" s="15" t="e">
+      <c r="L71" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M71" s="36" t="e">
         <f>K71</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="N71" s="46"/>
+      <c r="O71" s="8"/>
     </row>
-    <row r="72" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G72" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H72" s="10"/>
-      <c r="I72" s="11">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="29"/>
+      <c r="I72" s="6">
         <f>VLOOKUP(G72,$A$6:$D$32,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="J72" s="19"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="22"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="8"/>
     </row>
-    <row r="74" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F74">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="8"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46">
         <v>18</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="5"/>
+      <c r="G74" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="8"/>
     </row>
-    <row r="75" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G75" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H75" s="10"/>
-      <c r="I75" s="11">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H75" s="29"/>
+      <c r="I75" s="6">
         <f>VLOOKUP("Gastos de Administración",$A$6:$C$32,3,FALSE)+VLOOKUP("Gastos de Comercialización",$A$6:$C$32,3,FALSE)+VLOOKUP("Gastos Financieros",$A$6:$C$32,3,FALSE)</f>
         <v>62378388.939999998</v>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K75" s="13">
+      <c r="J75" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" s="32">
         <f>I75/I76</f>
         <v>7.3548302068773372E-2</v>
       </c>
-      <c r="L75" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M75" s="36">
+      <c r="L75" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M75" s="38">
         <f>K75*365</f>
         <v>26.84513025510228</v>
       </c>
+      <c r="N75" s="46"/>
+      <c r="O75" s="8"/>
     </row>
-    <row r="76" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G76" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H76" s="10"/>
-      <c r="I76" s="11">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="29"/>
+      <c r="I76" s="6">
         <f>VLOOKUP(G76,$A$6:$C$32,3,FALSE)</f>
         <v>848128198.54999995</v>
       </c>
-      <c r="J76" s="19"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="37"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="8"/>
     </row>
-    <row r="78" spans="6:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F78">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="8"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46">
         <v>19</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="5"/>
+      <c r="G78" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="27"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="8"/>
     </row>
-    <row r="79" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G79" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H79" s="10"/>
-      <c r="I79" s="11">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="29"/>
+      <c r="I79" s="6">
         <f>VLOOKUP(G79,$A$6:$C$32,3,FALSE)</f>
         <v>0.74032926558326839</v>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K79" s="13">
+      <c r="J79" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" s="32">
         <f>I79/I80</f>
         <v>3.6375072506822796</v>
       </c>
-      <c r="L79" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M79" s="15">
+      <c r="L79" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="M79" s="36">
         <f>K79</f>
         <v>3.6375072506822796</v>
       </c>
+      <c r="N79" s="46"/>
+      <c r="O79" s="8"/>
     </row>
-    <row r="80" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="G80" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H80" s="10"/>
-      <c r="I80" s="11">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" s="29"/>
+      <c r="I80" s="6">
         <f>VLOOKUP(G80,$A$6:$D$32,3,FALSE)</f>
         <v>0.20352654017236843</v>
       </c>
-      <c r="J80" s="19"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="22"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="8"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="8"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="8"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="8"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="8"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="133">
+  <mergeCells count="135">
+    <mergeCell ref="G5:M5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G50:M50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G62:M62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G58:M58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G70:M70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="L67:L68"/>
+    <mergeCell ref="M67:M68"/>
+    <mergeCell ref="G68:H68"/>
     <mergeCell ref="G78:M78"/>
     <mergeCell ref="G79:H79"/>
     <mergeCell ref="J79:J80"/>
@@ -23029,128 +23995,10 @@
     <mergeCell ref="L75:L76"/>
     <mergeCell ref="M75:M76"/>
     <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G70:M70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="L67:L68"/>
-    <mergeCell ref="M67:M68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G62:M62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G58:M58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G50:M50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G41:M41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23165,73 +24013,73 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="39">
+      <c r="A1" s="23">
         <v>1</v>
       </c>
-      <c r="B1" s="39">
+      <c r="B1" s="23">
         <v>2</v>
       </c>
-      <c r="C1" s="39">
+      <c r="C1" s="23">
         <v>3</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="23">
         <v>4</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="23">
         <v>5</v>
       </c>
-      <c r="F1" s="39">
+      <c r="F1" s="23">
         <v>6</v>
       </c>
-      <c r="G1" s="39">
+      <c r="G1" s="23">
         <f>F1+1</f>
         <v>7</v>
       </c>
-      <c r="H1" s="39">
+      <c r="H1" s="23">
         <f t="shared" ref="H1:M1" si="0">G1+1</f>
         <v>8</v>
       </c>
-      <c r="I1" s="39">
+      <c r="I1" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J1" s="39">
+      <c r="J1" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K1" s="39">
+      <c r="K1" s="23">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L1" s="39">
+      <c r="L1" s="23">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M1" s="39">
+      <c r="M1" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="N1" s="39">
+      <c r="N1" s="23">
         <f t="shared" ref="N1:S1" si="1">M1+1</f>
         <v>14</v>
       </c>
-      <c r="O1" s="39">
+      <c r="O1" s="23">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P1" s="39">
+      <c r="P1" s="23">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="Q1" s="39">
+      <c r="Q1" s="23">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="R1" s="39">
+      <c r="R1" s="23">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S1" s="39">
+      <c r="S1" s="23">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -23610,79 +24458,79 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="24">
         <f>Principal!$K$6*100</f>
         <v>47.844008153023985</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="24">
         <f>Principal!$K$10*100</f>
         <v>52.155991846976015</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="24">
         <f>Principal!$K$14*100</f>
         <v>17.448038972990464</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="24">
         <f>Principal!$K$18*100</f>
         <v>8.347841188780361</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="24">
         <f>Principal!$K$22*100</f>
         <v>109.01258874499102</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="24">
         <f>Principal!$K$26*100</f>
         <v>52.155991846976015</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="24">
         <f>Principal!$K$30*100</f>
         <v>186.0805002961811</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="24">
         <f>Principal!$K$34*100</f>
         <v>-151.64610571902233</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="24">
         <f>Principal!$K$38*100</f>
         <v>6.0353688759893762E-2</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="24">
         <f>Principal!$K$42*100</f>
         <v>8.7741598401416923</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="24">
         <f>Principal!$K$46*100</f>
         <v>97.905753848314703</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="24">
         <f>Principal!$K$51*100</f>
         <v>142.26310578617682</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="24">
         <f>Principal!$K$55*100</f>
         <v>0</v>
       </c>
-      <c r="N10" s="40">
+      <c r="N10" s="24">
         <f>Principal!$K$59*100</f>
         <v>7.1082893457872514</v>
       </c>
-      <c r="O10" s="40">
+      <c r="O10" s="24">
         <f>Principal!$K$63*100</f>
         <v>74.032926558326835</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="24">
         <f>Principal!$K$67*100</f>
         <v>20.352654017236844</v>
       </c>
-      <c r="Q10" s="40" t="e">
+      <c r="Q10" s="24" t="e">
         <f>Principal!$K$71*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="24">
         <f>Principal!$K$75*100</f>
         <v>7.3548302068773372</v>
       </c>
-      <c r="S10" s="40">
+      <c r="S10" s="24">
         <f>Principal!$K$79*100</f>
         <v>363.75072506822795</v>
       </c>
